--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\griff\OneDrive\Documents\Vivado_Projects\CPU_Testing\CPU_Testing.srcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056FBD37-F755-46FE-A723-AE9B28400719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D14E11-32A6-4F66-9D3F-EA758AEABCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F314D852-51DF-47F2-AB20-2B4379859005}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F314D852-51DF-47F2-AB20-2B4379859005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>A</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>pla2</t>
-  </si>
-  <si>
-    <t>lda(i)3</t>
   </si>
   <si>
     <t>bic</t>
@@ -351,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +376,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +398,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,30 +427,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -781,62 +829,62 @@
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11:M13"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>0</v>
       </c>
@@ -886,9 +934,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>43</v>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -900,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -938,9 +986,9 @@
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>44</v>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -949,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -970,34 +1018,34 @@
         <v>17</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>45</v>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1005,43 +1053,43 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>46</v>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
@@ -1050,10 +1098,10 @@
         <v>29</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1062,31 +1110,31 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>47</v>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1094,31 +1142,31 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>48</v>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1126,9 +1174,9 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>49</v>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -1136,17 +1184,17 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1154,9 +1202,9 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>50</v>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
@@ -1178,11 +1226,14 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7">
         <v>8</v>
       </c>
       <c r="D15" s="1"/>
@@ -1206,22 +1257,20 @@
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7">
         <v>9</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1239,14 +1288,14 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1263,23 +1312,20 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1296,10 +1342,13 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
@@ -1323,24 +1372,22 @@
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1357,17 +1404,14 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1384,20 +1428,20 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1415,24 +1459,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E9 D7:E8 G17:S17 D18:S19 G20:S21 D22:S22 D16 F16:S16 E16:E17 G7:S7 G8:K8 G8:G9 F7:F9 O8:S8 J9:S9 D10:S10 D14:S15 D11:E13 J11:J13 O11:S13 L11:M13">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="D7:S22">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>LEN(D7)=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>LEN(D7)=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>ISNUMBER(RIGHT(D7,1)*1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISNUMBER(RIGHT(E20,1)*1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H13">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISNUMBER(RIGHT(H11,1)*1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I13">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISNUMBER(RIGHT(I11,1)*1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
